--- a/REGULAR/OJT/BORJA, NECY MANIMTIM.xlsx
+++ b/REGULAR/OJT/BORJA, NECY MANIMTIM.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35167226-1D52-4E4D-8EE3-581340BB9DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="419">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1297,7 +1296,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2017,7 +2016,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2060,7 +2059,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2124,7 +2123,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2184,7 +2183,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2250,7 +2249,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2313,7 +2312,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2411,7 +2410,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2469,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2535,7 +2534,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2577,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2652,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2839,7 +2838,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2905,7 +2904,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2963,7 +2962,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3029,7 +3028,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3085,7 +3084,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3160,7 +3159,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3203,7 +3202,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3269,7 +3268,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3325,7 +3324,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3404,7 +3403,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3421,25 +3420,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K689" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K690" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3746,7 +3745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3756,7 +3755,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3764,34 +3763,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M689"/>
+  <dimension ref="A2:M690"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A580" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A580" activePane="bottomLeft"/>
       <selection activeCell="D23" sqref="D23"/>
-      <selection pane="bottomLeft" activeCell="B591" sqref="B591"/>
+      <selection pane="bottomLeft" activeCell="K592" sqref="K592"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
@@ -3814,7 +3813,7 @@
       </c>
       <c r="K2" s="62"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3837,7 +3836,7 @@
       <c r="K3" s="64"/>
       <c r="M3" s="47"/>
     </row>
-    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3859,7 +3858,7 @@
       <c r="J4" s="65"/>
       <c r="K4" s="66"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="26" t="s">
         <v>18</v>
@@ -3867,7 +3866,7 @@
       <c r="I5" s="26"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="30"/>
@@ -3880,7 +3879,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="59" t="s">
@@ -3897,7 +3896,7 @@
       <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3932,7 +3931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="50"/>
       <c r="B9" s="51" t="s">
         <v>23</v>
@@ -3951,12 +3950,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="54"/>
       <c r="B10" s="10" t="s">
         <v>60</v>
@@ -3971,7 +3970,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
       <c r="B11" s="1" t="s">
         <v>61</v>
@@ -3986,7 +3985,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="52"/>
       <c r="B12" s="11" t="s">
         <v>62</v>
@@ -4003,7 +4002,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
         <v>63</v>
       </c>
@@ -4022,7 +4021,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>35431</v>
       </c>
@@ -4046,7 +4045,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>35462</v>
       </c>
@@ -4066,7 +4065,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>35490</v>
       </c>
@@ -4090,7 +4089,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>35521</v>
       </c>
@@ -4110,7 +4109,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>35551</v>
       </c>
@@ -4134,7 +4133,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>35582</v>
       </c>
@@ -4154,7 +4153,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>35612</v>
       </c>
@@ -4174,7 +4173,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>35643</v>
       </c>
@@ -4194,7 +4193,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>35674</v>
       </c>
@@ -4218,7 +4217,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>35704</v>
       </c>
@@ -4242,7 +4241,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>35735</v>
       </c>
@@ -4262,7 +4261,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>35765</v>
       </c>
@@ -4286,7 +4285,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="20" t="s">
         <v>89</v>
@@ -4306,7 +4305,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
         <v>64</v>
       </c>
@@ -4328,7 +4327,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>35796</v>
       </c>
@@ -4354,7 +4353,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="20" t="s">
         <v>90</v>
@@ -4371,7 +4370,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>35827</v>
       </c>
@@ -4397,7 +4396,7 @@
         <v>35835</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>35855</v>
       </c>
@@ -4423,7 +4422,7 @@
         <v>35863</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>35886</v>
       </c>
@@ -4443,7 +4442,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>35916</v>
       </c>
@@ -4465,7 +4464,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="20" t="s">
         <v>94</v>
@@ -4485,7 +4484,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="20" t="s">
         <v>95</v>
@@ -4507,7 +4506,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>35947</v>
       </c>
@@ -4533,7 +4532,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="20" t="s">
         <v>97</v>
@@ -4553,7 +4552,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>35977</v>
       </c>
@@ -4579,7 +4578,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>98</v>
@@ -4599,7 +4598,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>36008</v>
       </c>
@@ -4623,7 +4622,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>36039</v>
       </c>
@@ -4649,7 +4648,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>54</v>
@@ -4671,7 +4670,7 @@
         <v>36067</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="20" t="s">
         <v>100</v>
@@ -4691,7 +4690,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>36069</v>
       </c>
@@ -4717,7 +4716,7 @@
         <v>36080</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="20" t="s">
         <v>101</v>
@@ -4737,7 +4736,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>36100</v>
       </c>
@@ -4761,7 +4760,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>36130</v>
       </c>
@@ -4787,7 +4786,7 @@
         <v>36157</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="20" t="s">
         <v>103</v>
@@ -4807,7 +4806,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
       <c r="B49" s="20" t="s">
         <v>104</v>
@@ -4827,7 +4826,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
         <v>65</v>
       </c>
@@ -4849,7 +4848,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>36161</v>
       </c>
@@ -4875,7 +4874,7 @@
         <v>36179</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>109</v>
@@ -4892,7 +4891,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>36192</v>
       </c>
@@ -4918,7 +4917,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>36220</v>
       </c>
@@ -4944,7 +4943,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>111</v>
@@ -4961,7 +4960,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>36251</v>
       </c>
@@ -4985,7 +4984,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>49</v>
@@ -5007,7 +5006,7 @@
         <v>36273</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>36281</v>
       </c>
@@ -5031,7 +5030,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="20" t="s">
         <v>96</v>
@@ -5053,7 +5052,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="20" t="s">
         <v>48</v>
@@ -5073,7 +5072,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>50</v>
@@ -5095,7 +5094,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>112</v>
@@ -5115,7 +5114,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>36312</v>
       </c>
@@ -5139,7 +5138,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>36342</v>
       </c>
@@ -5165,7 +5164,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
         <v>121</v>
@@ -5185,7 +5184,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>36373</v>
       </c>
@@ -5209,7 +5208,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="B67" s="20" t="s">
         <v>122</v>
@@ -5229,7 +5228,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>36404</v>
       </c>
@@ -5255,7 +5254,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>49</v>
@@ -5274,7 +5273,7 @@
         <v>36423</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="20" t="s">
         <v>54</v>
@@ -5293,7 +5292,7 @@
         <v>36432</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>102</v>
@@ -5310,7 +5309,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>36434</v>
       </c>
@@ -5334,7 +5333,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>36465</v>
       </c>
@@ -5360,7 +5359,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="B74" s="20" t="s">
         <v>124</v>
@@ -5380,7 +5379,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>36495</v>
       </c>
@@ -5406,7 +5405,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="20" t="s">
         <v>125</v>
@@ -5426,7 +5425,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
         <v>66</v>
       </c>
@@ -5448,7 +5447,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>36526</v>
       </c>
@@ -5472,7 +5471,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="20" t="s">
         <v>132</v>
@@ -5492,7 +5491,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>36557</v>
       </c>
@@ -5518,7 +5517,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>133</v>
@@ -5538,7 +5537,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>36586</v>
       </c>
@@ -5564,7 +5563,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>134</v>
@@ -5584,7 +5583,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>36617</v>
       </c>
@@ -5608,7 +5607,7 @@
         <v>36641</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23"/>
       <c r="B85" s="20" t="s">
         <v>49</v>
@@ -5630,7 +5629,7 @@
         <v>36633</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>112</v>
@@ -5650,7 +5649,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>36647</v>
       </c>
@@ -5674,7 +5673,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>54</v>
@@ -5693,7 +5692,7 @@
         <v>36672</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>49</v>
@@ -5712,7 +5711,7 @@
         <v>36662</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23"/>
       <c r="B90" s="20" t="s">
         <v>50</v>
@@ -5731,7 +5730,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>138</v>
@@ -5748,7 +5747,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>36678</v>
       </c>
@@ -5774,7 +5773,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23"/>
       <c r="B93" s="20" t="s">
         <v>139</v>
@@ -5794,7 +5793,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>36708</v>
       </c>
@@ -5820,7 +5819,7 @@
         <v>36725</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23"/>
       <c r="B95" s="20" t="s">
         <v>140</v>
@@ -5840,7 +5839,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>36739</v>
       </c>
@@ -5866,7 +5865,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>141</v>
@@ -5886,7 +5885,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>36770</v>
       </c>
@@ -5912,7 +5911,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>142</v>
@@ -5932,7 +5931,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>36800</v>
       </c>
@@ -5958,7 +5957,7 @@
         <v>36815</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>143</v>
@@ -5978,7 +5977,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>36831</v>
       </c>
@@ -6004,7 +6003,7 @@
         <v>36850</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>54</v>
@@ -6026,7 +6025,7 @@
         <v>36859</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>144</v>
@@ -6046,7 +6045,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>36861</v>
       </c>
@@ -6072,7 +6071,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>54</v>
@@ -6094,7 +6093,7 @@
         <v>36884</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23"/>
       <c r="B107" s="20" t="s">
         <v>150</v>
@@ -6114,7 +6113,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>151</v>
@@ -6131,7 +6130,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="48" t="s">
         <v>67</v>
       </c>
@@ -6153,7 +6152,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>36892</v>
       </c>
@@ -6177,7 +6176,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <v>36923</v>
       </c>
@@ -6203,7 +6202,7 @@
         <v>36930</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>103</v>
@@ -6223,7 +6222,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>48</v>
@@ -6243,7 +6242,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>36951</v>
       </c>
@@ -6267,7 +6266,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <v>36982</v>
       </c>
@@ -6291,7 +6290,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>37012</v>
       </c>
@@ -6315,7 +6314,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>49</v>
@@ -6337,7 +6336,7 @@
         <v>37013</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>54</v>
@@ -6359,7 +6358,7 @@
         <v>37036</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>152</v>
@@ -6379,7 +6378,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>37043</v>
       </c>
@@ -6403,7 +6402,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <v>37073</v>
       </c>
@@ -6429,7 +6428,7 @@
         <v>37097</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>153</v>
@@ -6449,7 +6448,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>37104</v>
       </c>
@@ -6475,7 +6474,7 @@
         <v>37107</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>49</v>
@@ -6497,7 +6496,7 @@
         <v>37120</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>50</v>
@@ -6519,7 +6518,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>90</v>
@@ -6539,7 +6538,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <v>37135</v>
       </c>
@@ -6565,7 +6564,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>158</v>
@@ -6585,7 +6584,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <v>37165</v>
       </c>
@@ -6611,7 +6610,7 @@
         <v>37180</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>49</v>
@@ -6633,7 +6632,7 @@
         <v>37186</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
         <v>160</v>
@@ -6653,7 +6652,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <v>37196</v>
       </c>
@@ -6679,7 +6678,7 @@
         <v>37208</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23"/>
       <c r="B133" s="20" t="s">
         <v>54</v>
@@ -6701,7 +6700,7 @@
         <v>37224</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>138</v>
@@ -6721,7 +6720,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>37226</v>
       </c>
@@ -6747,7 +6746,7 @@
         <v>37231</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23"/>
       <c r="B136" s="20" t="s">
         <v>54</v>
@@ -6769,7 +6768,7 @@
         <v>37243</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>159</v>
@@ -6789,7 +6788,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="48" t="s">
         <v>68</v>
       </c>
@@ -6811,7 +6810,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <v>37257</v>
       </c>
@@ -6835,7 +6834,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>49</v>
@@ -6857,7 +6856,7 @@
         <v>37266</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>162</v>
@@ -6877,7 +6876,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <v>37288</v>
       </c>
@@ -6903,7 +6902,7 @@
         <v>37292</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>54</v>
@@ -6925,7 +6924,7 @@
         <v>37307</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>165</v>
@@ -6947,7 +6946,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>37316</v>
       </c>
@@ -6971,7 +6970,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <v>37347</v>
       </c>
@@ -6997,7 +6996,7 @@
         <v>37364</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23"/>
       <c r="B147" s="20" t="s">
         <v>48</v>
@@ -7014,7 +7013,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>167</v>
@@ -7034,7 +7033,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <v>37377</v>
       </c>
@@ -7060,7 +7059,7 @@
         <v>37400</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>52</v>
@@ -7082,7 +7081,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>168</v>
@@ -7102,7 +7101,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>37408</v>
       </c>
@@ -7126,7 +7125,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <v>37438</v>
       </c>
@@ -7152,7 +7151,7 @@
         <v>37446</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>170</v>
@@ -7172,7 +7171,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>37469</v>
       </c>
@@ -7196,7 +7195,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <v>37500</v>
       </c>
@@ -7222,7 +7221,7 @@
         <v>37497</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>49</v>
@@ -7244,7 +7243,7 @@
         <v>37504</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>54</v>
@@ -7266,7 +7265,7 @@
         <v>37529</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23"/>
       <c r="B159" s="20" t="s">
         <v>171</v>
@@ -7286,7 +7285,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <v>37530</v>
       </c>
@@ -7310,7 +7309,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <v>37561</v>
       </c>
@@ -7334,7 +7333,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <v>37591</v>
       </c>
@@ -7360,7 +7359,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>49</v>
@@ -7382,7 +7381,7 @@
         <v>37613</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>178</v>
@@ -7399,7 +7398,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="49"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="48" t="s">
         <v>69</v>
       </c>
@@ -7421,7 +7420,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <v>37622</v>
       </c>
@@ -7445,7 +7444,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>48</v>
@@ -7465,7 +7464,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <v>37653</v>
       </c>
@@ -7489,7 +7488,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <v>37681</v>
       </c>
@@ -7515,7 +7514,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>181</v>
@@ -7534,7 +7533,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>126</v>
@@ -7553,7 +7552,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>48</v>
@@ -7570,7 +7569,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <v>37712</v>
       </c>
@@ -7594,7 +7593,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <v>37742</v>
       </c>
@@ -7618,7 +7617,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <v>37773</v>
       </c>
@@ -7642,7 +7641,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <v>37803</v>
       </c>
@@ -7666,7 +7665,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>37834</v>
       </c>
@@ -7686,7 +7685,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>37865</v>
       </c>
@@ -7712,7 +7711,7 @@
         <v>37893</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <v>37895</v>
       </c>
@@ -7736,7 +7735,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <v>37926</v>
       </c>
@@ -7760,7 +7759,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23">
         <v>37956</v>
       </c>
@@ -7784,7 +7783,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>48</v>
@@ -7804,7 +7803,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>193</v>
@@ -7824,7 +7823,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="48" t="s">
         <v>70</v>
       </c>
@@ -7846,7 +7845,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <v>37987</v>
       </c>
@@ -7870,7 +7869,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <v>38018</v>
       </c>
@@ -7894,7 +7893,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>48</v>
@@ -7914,7 +7913,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <v>38047</v>
       </c>
@@ -7938,7 +7937,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>48</v>
@@ -7958,7 +7957,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <v>38078</v>
       </c>
@@ -7984,7 +7983,7 @@
         <v>38077</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>196</v>
@@ -8004,7 +8003,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <v>38108</v>
       </c>
@@ -8028,7 +8027,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
         <v>38139</v>
       </c>
@@ -8054,7 +8053,7 @@
         <v>38139</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>201</v>
@@ -8074,7 +8073,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="49"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>49</v>
@@ -8096,7 +8095,7 @@
         <v>38168</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <v>38169</v>
       </c>
@@ -8122,7 +8121,7 @@
         <v>38187</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>49</v>
@@ -8144,7 +8143,7 @@
         <v>38184</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>96</v>
@@ -8166,7 +8165,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>158</v>
@@ -8186,7 +8185,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <v>38200</v>
       </c>
@@ -8210,7 +8209,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <v>38231</v>
       </c>
@@ -8234,7 +8233,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23">
         <v>38261</v>
       </c>
@@ -8260,7 +8259,7 @@
         <v>38286</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>204</v>
@@ -8280,7 +8279,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23">
         <v>38292</v>
       </c>
@@ -8306,7 +8305,7 @@
         <v>38342</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>170</v>
@@ -8326,7 +8325,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <v>38322</v>
       </c>
@@ -8350,7 +8349,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="48" t="s">
         <v>71</v>
       </c>
@@ -8372,7 +8371,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <v>38353</v>
       </c>
@@ -8396,7 +8395,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>48</v>
@@ -8416,7 +8415,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>48</v>
@@ -8436,7 +8435,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <v>38384</v>
       </c>
@@ -8462,7 +8461,7 @@
         <v>38394</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>48</v>
@@ -8482,7 +8481,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>109</v>
@@ -8502,7 +8501,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <v>38412</v>
       </c>
@@ -8526,7 +8525,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>224</v>
@@ -8543,7 +8542,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <v>38443</v>
       </c>
@@ -8563,7 +8562,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <v>38473</v>
       </c>
@@ -8587,7 +8586,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <v>38504</v>
       </c>
@@ -8613,7 +8612,7 @@
         <v>38505</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>213</v>
@@ -8633,7 +8632,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <v>38534</v>
       </c>
@@ -8659,7 +8658,7 @@
         <v>38558</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <v>38565</v>
       </c>
@@ -8683,7 +8682,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <v>38596</v>
       </c>
@@ -8709,7 +8708,7 @@
         <v>38636</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>216</v>
@@ -8729,7 +8728,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <v>38626</v>
       </c>
@@ -8753,7 +8752,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <v>38657</v>
       </c>
@@ -8779,7 +8778,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>218</v>
@@ -8799,7 +8798,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <v>38687</v>
       </c>
@@ -8823,7 +8822,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="48" t="s">
         <v>72</v>
       </c>
@@ -8841,7 +8840,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <v>38718</v>
       </c>
@@ -8867,7 +8866,7 @@
         <v>38726</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>48</v>
@@ -8887,7 +8886,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>58</v>
@@ -8907,7 +8906,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
         <v>220</v>
@@ -8927,7 +8926,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <v>38749</v>
       </c>
@@ -8951,7 +8950,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <v>38777</v>
       </c>
@@ -8977,7 +8976,7 @@
         <v>38790</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>214</v>
@@ -8999,7 +8998,7 @@
         <v>38806</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>226</v>
@@ -9019,7 +9018,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>38808</v>
       </c>
@@ -9045,7 +9044,7 @@
         <v>38846</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>214</v>
@@ -9067,7 +9066,7 @@
         <v>38863</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>227</v>
@@ -9087,7 +9086,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <v>38838</v>
       </c>
@@ -9111,7 +9110,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <v>38869</v>
       </c>
@@ -9135,7 +9134,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <v>38899</v>
       </c>
@@ -9161,7 +9160,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>230</v>
@@ -9181,7 +9180,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <v>38930</v>
       </c>
@@ -9207,7 +9206,7 @@
         <v>38957</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
         <v>231</v>
@@ -9224,7 +9223,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <v>38961</v>
       </c>
@@ -9248,7 +9247,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <v>38991</v>
       </c>
@@ -9272,7 +9271,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <v>39022</v>
       </c>
@@ -9296,7 +9295,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <v>39052</v>
       </c>
@@ -9322,7 +9321,7 @@
         <v>39062</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>214</v>
@@ -9344,7 +9343,7 @@
         <v>39072</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
         <v>235</v>
@@ -9364,7 +9363,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="48" t="s">
         <v>73</v>
       </c>
@@ -9386,7 +9385,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <v>39083</v>
       </c>
@@ -9410,7 +9409,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
         <v>237</v>
@@ -9430,7 +9429,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <v>39114</v>
       </c>
@@ -9454,7 +9453,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <v>39142</v>
       </c>
@@ -9478,7 +9477,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>239</v>
@@ -9498,7 +9497,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <v>39173</v>
       </c>
@@ -9524,7 +9523,7 @@
         <v>39188</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>48</v>
@@ -9544,7 +9543,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>240</v>
@@ -9564,7 +9563,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <v>39203</v>
       </c>
@@ -9590,7 +9589,7 @@
         <v>39211</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>50</v>
@@ -9612,7 +9611,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>241</v>
@@ -9632,7 +9631,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <v>39234</v>
       </c>
@@ -9658,7 +9657,7 @@
         <v>39251</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>242</v>
@@ -9678,7 +9677,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <v>39264</v>
       </c>
@@ -9702,7 +9701,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <v>39295</v>
       </c>
@@ -9728,7 +9727,7 @@
         <v>39304</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>244</v>
@@ -9748,7 +9747,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <v>39326</v>
       </c>
@@ -9774,7 +9773,7 @@
         <v>39346</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>245</v>
@@ -9794,7 +9793,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <v>39356</v>
       </c>
@@ -9820,7 +9819,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>247</v>
@@ -9840,7 +9839,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <v>39387</v>
       </c>
@@ -9866,7 +9865,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>253</v>
@@ -9886,7 +9885,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <v>39417</v>
       </c>
@@ -9912,7 +9911,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
         <v>254</v>
@@ -9932,7 +9931,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="48" t="s">
         <v>74</v>
       </c>
@@ -9954,7 +9953,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23">
         <v>39448</v>
       </c>
@@ -9978,7 +9977,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>228</v>
@@ -9998,7 +9997,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <v>39479</v>
       </c>
@@ -10024,7 +10023,7 @@
         <v>39493</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>58</v>
@@ -10044,7 +10043,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>257</v>
@@ -10064,7 +10063,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <v>39508</v>
       </c>
@@ -10090,7 +10089,7 @@
         <v>39533</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>206</v>
@@ -10110,7 +10109,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <v>39539</v>
       </c>
@@ -10134,7 +10133,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <v>39569</v>
       </c>
@@ -10160,7 +10159,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>50</v>
@@ -10182,7 +10181,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>214</v>
@@ -10204,7 +10203,7 @@
         <v>39598</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>259</v>
@@ -10224,7 +10223,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <v>39600</v>
       </c>
@@ -10248,7 +10247,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <v>39630</v>
       </c>
@@ -10272,7 +10271,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <v>39661</v>
       </c>
@@ -10298,7 +10297,7 @@
         <v>39661</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>49</v>
@@ -10317,7 +10316,7 @@
         <v>39689</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
         <v>266</v>
@@ -10334,7 +10333,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="49"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <v>39692</v>
       </c>
@@ -10360,7 +10359,7 @@
         <v>39703</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23"/>
       <c r="B296" s="20" t="s">
         <v>267</v>
@@ -10380,7 +10379,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <v>39722</v>
       </c>
@@ -10406,7 +10405,7 @@
         <v>39744</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>268</v>
@@ -10426,7 +10425,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <v>39753</v>
       </c>
@@ -10452,7 +10451,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>214</v>
@@ -10474,7 +10473,7 @@
         <v>39784</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
         <v>270</v>
@@ -10494,7 +10493,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <v>39783</v>
       </c>
@@ -10518,7 +10517,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="48" t="s">
         <v>75</v>
       </c>
@@ -10536,7 +10535,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <v>39814</v>
       </c>
@@ -10560,7 +10559,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>273</v>
@@ -10580,7 +10579,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23">
         <v>39845</v>
       </c>
@@ -10606,7 +10605,7 @@
         <v>39860</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23"/>
       <c r="B307" s="20" t="s">
         <v>48</v>
@@ -10626,7 +10625,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
         <v>274</v>
@@ -10646,7 +10645,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <v>39873</v>
       </c>
@@ -10672,7 +10671,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>48</v>
@@ -10692,7 +10691,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
         <v>275</v>
@@ -10712,7 +10711,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <v>39904</v>
       </c>
@@ -10738,7 +10737,7 @@
         <v>39924</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23"/>
       <c r="B313" s="20" t="s">
         <v>280</v>
@@ -10755,7 +10754,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="49"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <v>39934</v>
       </c>
@@ -10779,7 +10778,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23">
         <v>39965</v>
       </c>
@@ -10805,7 +10804,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>283</v>
@@ -10825,7 +10824,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <v>39995</v>
       </c>
@@ -10851,7 +10850,7 @@
         <v>40021</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
         <v>284</v>
@@ -10871,7 +10870,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <v>40026</v>
       </c>
@@ -10897,7 +10896,7 @@
         <v>40036</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23"/>
       <c r="B320" s="20" t="s">
         <v>285</v>
@@ -10917,7 +10916,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23">
         <v>40057</v>
       </c>
@@ -10943,7 +10942,7 @@
         <v>40059</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>286</v>
@@ -10963,7 +10962,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23">
         <v>40087</v>
       </c>
@@ -10989,7 +10988,7 @@
         <v>40107</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23"/>
       <c r="B324" s="20" t="s">
         <v>238</v>
@@ -11009,7 +11008,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23">
         <v>40118</v>
       </c>
@@ -11035,7 +11034,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
         <v>287</v>
@@ -11055,7 +11054,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <v>40148</v>
       </c>
@@ -11081,7 +11080,7 @@
         <v>40157</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>214</v>
@@ -11101,7 +11100,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
         <v>288</v>
@@ -11121,7 +11120,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="48" t="s">
         <v>76</v>
       </c>
@@ -11143,7 +11142,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23">
         <v>40179</v>
       </c>
@@ -11167,7 +11166,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>48</v>
@@ -11184,7 +11183,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23"/>
       <c r="B333" s="20" t="s">
         <v>49</v>
@@ -11203,7 +11202,7 @@
         <v>40207</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23"/>
       <c r="B334" s="20" t="s">
         <v>292</v>
@@ -11223,7 +11222,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="49"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23">
         <v>40210</v>
       </c>
@@ -11247,7 +11246,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23"/>
       <c r="B336" s="20" t="s">
         <v>293</v>
@@ -11267,7 +11266,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23">
         <v>40238</v>
       </c>
@@ -11293,7 +11292,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23"/>
       <c r="B338" s="20" t="s">
         <v>294</v>
@@ -11313,7 +11312,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <v>40269</v>
       </c>
@@ -11337,7 +11336,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23">
         <v>40299</v>
       </c>
@@ -11363,7 +11362,7 @@
         <v>40329</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23"/>
       <c r="B341" s="20" t="s">
         <v>296</v>
@@ -11383,7 +11382,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23">
         <v>40330</v>
       </c>
@@ -11407,7 +11406,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <v>40360</v>
       </c>
@@ -11433,7 +11432,7 @@
         <v>40381</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>297</v>
@@ -11453,7 +11452,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23">
         <v>40391</v>
       </c>
@@ -11477,7 +11476,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <v>40422</v>
       </c>
@@ -11501,7 +11500,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23">
         <v>40452</v>
       </c>
@@ -11527,7 +11526,7 @@
         <v>40462</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
         <v>299</v>
@@ -11547,7 +11546,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23">
         <v>40483</v>
       </c>
@@ -11573,7 +11572,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <v>40513</v>
       </c>
@@ -11597,7 +11596,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="48" t="s">
         <v>77</v>
       </c>
@@ -11615,7 +11614,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23">
         <v>40544</v>
       </c>
@@ -11635,7 +11634,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23">
         <v>40575</v>
       </c>
@@ -11659,7 +11658,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23">
         <v>40603</v>
       </c>
@@ -11683,7 +11682,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23">
         <v>40634</v>
       </c>
@@ -11707,7 +11706,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <v>40664</v>
       </c>
@@ -11731,7 +11730,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>58</v>
@@ -11751,7 +11750,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
         <v>306</v>
@@ -11771,7 +11770,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23">
         <v>40695</v>
       </c>
@@ -11795,7 +11794,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23">
         <v>40725</v>
       </c>
@@ -11821,7 +11820,7 @@
         <v>40725</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23"/>
       <c r="B361" s="20" t="s">
         <v>308</v>
@@ -11841,7 +11840,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23">
         <v>40756</v>
       </c>
@@ -11867,7 +11866,7 @@
         <v>40758</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23"/>
       <c r="B363" s="20" t="s">
         <v>104</v>
@@ -11889,7 +11888,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>313</v>
@@ -11909,7 +11908,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23">
         <v>40787</v>
       </c>
@@ -11935,7 +11934,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23"/>
       <c r="B366" s="20" t="s">
         <v>309</v>
@@ -11955,7 +11954,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23">
         <v>40817</v>
       </c>
@@ -11981,7 +11980,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
         <v>49</v>
@@ -12003,7 +12002,7 @@
         <v>40842</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>310</v>
@@ -12023,7 +12022,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23">
         <v>40848</v>
       </c>
@@ -12047,7 +12046,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23">
         <v>40878</v>
       </c>
@@ -12073,7 +12072,7 @@
         <v>40906</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23"/>
       <c r="B372" s="20" t="s">
         <v>312</v>
@@ -12093,7 +12092,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>214</v>
@@ -12113,7 +12112,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="48" t="s">
         <v>78</v>
       </c>
@@ -12131,7 +12130,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23">
         <v>40909</v>
       </c>
@@ -12155,7 +12154,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23">
         <v>40940</v>
       </c>
@@ -12179,7 +12178,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23">
         <v>40969</v>
       </c>
@@ -12203,7 +12202,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>104</v>
@@ -12225,7 +12224,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23"/>
       <c r="B379" s="20" t="s">
         <v>322</v>
@@ -12245,7 +12244,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23">
         <v>41000</v>
       </c>
@@ -12269,7 +12268,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23">
         <v>41030</v>
       </c>
@@ -12293,7 +12292,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23"/>
       <c r="B382" s="20" t="s">
         <v>49</v>
@@ -12315,7 +12314,7 @@
         <v>41033</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
         <v>49</v>
@@ -12337,7 +12336,7 @@
         <v>41047</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23"/>
       <c r="B384" s="20" t="s">
         <v>328</v>
@@ -12357,7 +12356,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23">
         <v>41061</v>
       </c>
@@ -12381,7 +12380,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23">
         <v>41091</v>
       </c>
@@ -12405,7 +12404,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23">
         <v>41122</v>
       </c>
@@ -12431,7 +12430,7 @@
         <v>41128</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23"/>
       <c r="B388" s="20" t="s">
         <v>324</v>
@@ -12451,7 +12450,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23">
         <v>41153</v>
       </c>
@@ -12475,7 +12474,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="23">
         <v>41183</v>
       </c>
@@ -12501,7 +12500,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23"/>
       <c r="B391" s="20" t="s">
         <v>326</v>
@@ -12521,7 +12520,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23">
         <v>41214</v>
       </c>
@@ -12545,7 +12544,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23"/>
       <c r="B393" s="20" t="s">
         <v>214</v>
@@ -12565,7 +12564,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23"/>
       <c r="B394" s="20" t="s">
         <v>327</v>
@@ -12585,7 +12584,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23">
         <v>41244</v>
       </c>
@@ -12611,7 +12610,7 @@
         <v>41249</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
         <v>334</v>
@@ -12631,7 +12630,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="48" t="s">
         <v>79</v>
       </c>
@@ -12653,7 +12652,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23">
         <v>41275</v>
       </c>
@@ -12677,7 +12676,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23">
         <v>41306</v>
       </c>
@@ -12701,7 +12700,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23">
         <v>41334</v>
       </c>
@@ -12725,7 +12724,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>337</v>
@@ -12745,7 +12744,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23">
         <v>41365</v>
       </c>
@@ -12769,7 +12768,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23"/>
       <c r="B403" s="20" t="s">
         <v>49</v>
@@ -12791,7 +12790,7 @@
         <v>41389</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23"/>
       <c r="B404" s="20" t="s">
         <v>338</v>
@@ -12811,7 +12810,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23">
         <v>41395</v>
       </c>
@@ -12835,7 +12834,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23">
         <v>41426</v>
       </c>
@@ -12859,7 +12858,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23">
         <v>41456</v>
       </c>
@@ -12883,7 +12882,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23">
         <v>41487</v>
       </c>
@@ -12907,7 +12906,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23">
         <v>41518</v>
       </c>
@@ -12933,7 +12932,7 @@
         <v>41536</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23"/>
       <c r="B410" s="20" t="s">
         <v>341</v>
@@ -12953,7 +12952,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23">
         <v>41548</v>
       </c>
@@ -12979,7 +12978,7 @@
         <v>41556</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23"/>
       <c r="B412" s="20" t="s">
         <v>151</v>
@@ -13001,7 +13000,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23"/>
       <c r="B413" s="20" t="s">
         <v>342</v>
@@ -13021,7 +13020,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23">
         <v>41579</v>
       </c>
@@ -13045,7 +13044,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23">
         <v>41609</v>
       </c>
@@ -13071,7 +13070,7 @@
         <v>41626</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23"/>
       <c r="B416" s="20" t="s">
         <v>48</v>
@@ -13091,7 +13090,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23"/>
       <c r="B417" s="20" t="s">
         <v>121</v>
@@ -13113,7 +13112,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="48" t="s">
         <v>80</v>
       </c>
@@ -13135,7 +13134,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23">
         <v>41640</v>
       </c>
@@ -13161,7 +13160,7 @@
         <v>41662</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23"/>
       <c r="B420" s="20" t="s">
         <v>144</v>
@@ -13181,7 +13180,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23">
         <v>41671</v>
       </c>
@@ -13207,7 +13206,7 @@
         <v>41683</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23"/>
       <c r="B422" s="20" t="s">
         <v>348</v>
@@ -13227,7 +13226,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="23">
         <v>41699</v>
       </c>
@@ -13251,7 +13250,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="23">
         <v>41730</v>
       </c>
@@ -13275,7 +13274,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23">
         <v>41760</v>
       </c>
@@ -13299,7 +13298,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23"/>
       <c r="B426" s="20" t="s">
         <v>49</v>
@@ -13321,7 +13320,7 @@
         <v>41778</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="23"/>
       <c r="B427" s="20" t="s">
         <v>48</v>
@@ -13341,7 +13340,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="23"/>
       <c r="B428" s="20" t="s">
         <v>275</v>
@@ -13361,7 +13360,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="23">
         <v>41791</v>
       </c>
@@ -13385,7 +13384,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="23">
         <v>41821</v>
       </c>
@@ -13409,7 +13408,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23">
         <v>41852</v>
       </c>
@@ -13433,7 +13432,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23">
         <v>41883</v>
       </c>
@@ -13457,7 +13456,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23">
         <v>41913</v>
       </c>
@@ -13483,7 +13482,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="23"/>
       <c r="B434" s="20" t="s">
         <v>357</v>
@@ -13503,7 +13502,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="23">
         <v>41944</v>
       </c>
@@ -13529,7 +13528,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="23"/>
       <c r="B436" s="20" t="s">
         <v>358</v>
@@ -13549,7 +13548,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="23">
         <v>41974</v>
       </c>
@@ -13573,7 +13572,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="48" t="s">
         <v>81</v>
       </c>
@@ -13595,7 +13594,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="23">
         <v>42005</v>
       </c>
@@ -13621,7 +13620,7 @@
         <v>42040</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="23"/>
       <c r="B440" s="20" t="s">
         <v>361</v>
@@ -13641,7 +13640,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="23">
         <v>42036</v>
       </c>
@@ -13665,7 +13664,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="23"/>
       <c r="B442" s="20" t="s">
         <v>362</v>
@@ -13685,7 +13684,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="23">
         <v>42064</v>
       </c>
@@ -13709,7 +13708,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="23">
         <v>42095</v>
       </c>
@@ -13733,7 +13732,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="23"/>
       <c r="B445" s="20" t="s">
         <v>364</v>
@@ -13753,7 +13752,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="23">
         <v>42125</v>
       </c>
@@ -13777,7 +13776,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="23"/>
       <c r="B447" s="20" t="s">
         <v>214</v>
@@ -13799,7 +13798,7 @@
         <v>42156</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="23"/>
       <c r="B448" s="20" t="s">
         <v>170</v>
@@ -13819,7 +13818,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="23">
         <v>42156</v>
       </c>
@@ -13845,7 +13844,7 @@
         <v>42172</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="23"/>
       <c r="B450" s="20" t="s">
         <v>365</v>
@@ -13865,7 +13864,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="23">
         <v>42186</v>
       </c>
@@ -13891,7 +13890,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="23"/>
       <c r="B452" s="20" t="s">
         <v>50</v>
@@ -13913,7 +13912,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="23"/>
       <c r="B453" s="20" t="s">
         <v>371</v>
@@ -13933,7 +13932,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="23">
         <v>42217</v>
       </c>
@@ -13957,7 +13956,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="23">
         <v>42248</v>
       </c>
@@ -13981,7 +13980,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="23">
         <v>42278</v>
       </c>
@@ -14007,7 +14006,7 @@
         <v>42300</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="23"/>
       <c r="B457" s="20" t="s">
         <v>49</v>
@@ -14029,7 +14028,7 @@
         <v>42296</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="23"/>
       <c r="B458" s="20" t="s">
         <v>373</v>
@@ -14049,7 +14048,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="23">
         <v>42309</v>
       </c>
@@ -14073,7 +14072,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="23">
         <v>42339</v>
       </c>
@@ -14097,7 +14096,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="23"/>
       <c r="B461" s="20" t="s">
         <v>359</v>
@@ -14117,7 +14116,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="48" t="s">
         <v>82</v>
       </c>
@@ -14139,7 +14138,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="23">
         <v>42370</v>
       </c>
@@ -14163,7 +14162,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="23">
         <v>42401</v>
       </c>
@@ -14189,7 +14188,7 @@
         <v>42416</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="23"/>
       <c r="B465" s="20" t="s">
         <v>48</v>
@@ -14209,7 +14208,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="23"/>
       <c r="B466" s="20" t="s">
         <v>376</v>
@@ -14229,7 +14228,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="23">
         <v>42430</v>
       </c>
@@ -14253,7 +14252,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="23"/>
       <c r="B468" s="20" t="s">
         <v>49</v>
@@ -14275,7 +14274,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="23"/>
       <c r="B469" s="20" t="s">
         <v>377</v>
@@ -14295,7 +14294,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="23">
         <v>42461</v>
       </c>
@@ -14321,7 +14320,7 @@
         <v>42472</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="23"/>
       <c r="B471" s="20" t="s">
         <v>378</v>
@@ -14341,7 +14340,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="23">
         <v>42491</v>
       </c>
@@ -14365,7 +14364,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="23">
         <v>42522</v>
       </c>
@@ -14391,7 +14390,7 @@
         <v>42531</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="23"/>
       <c r="B474" s="20" t="s">
         <v>50</v>
@@ -14413,7 +14412,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="23"/>
       <c r="B475" s="20" t="s">
         <v>380</v>
@@ -14433,7 +14432,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="23">
         <v>42552</v>
       </c>
@@ -14457,7 +14456,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="23">
         <v>42583</v>
       </c>
@@ -14483,7 +14482,7 @@
         <v>42604</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="23"/>
       <c r="B478" s="20" t="s">
         <v>381</v>
@@ -14503,7 +14502,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="23">
         <v>42614</v>
       </c>
@@ -14529,7 +14528,7 @@
         <v>42629</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="23"/>
       <c r="B480" s="20" t="s">
         <v>94</v>
@@ -14551,7 +14550,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="23"/>
       <c r="B481" s="20" t="s">
         <v>382</v>
@@ -14571,7 +14570,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="23">
         <v>42644</v>
       </c>
@@ -14595,7 +14594,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="23">
         <v>42675</v>
       </c>
@@ -14621,7 +14620,7 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="23"/>
       <c r="B484" s="20" t="s">
         <v>94</v>
@@ -14643,7 +14642,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="23"/>
       <c r="B485" s="20" t="s">
         <v>384</v>
@@ -14663,7 +14662,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="23">
         <v>42705</v>
       </c>
@@ -14687,7 +14686,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="48" t="s">
         <v>83</v>
       </c>
@@ -14705,7 +14704,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="23">
         <v>42736</v>
       </c>
@@ -14725,7 +14724,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="23">
         <v>42767</v>
       </c>
@@ -14745,7 +14744,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="23">
         <v>42795</v>
       </c>
@@ -14771,7 +14770,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="23"/>
       <c r="B491" s="20" t="s">
         <v>48</v>
@@ -14791,7 +14790,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="23">
         <v>42826</v>
       </c>
@@ -14815,7 +14814,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="23"/>
       <c r="B493" s="20" t="s">
         <v>48</v>
@@ -14832,7 +14831,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="23"/>
       <c r="B494" s="20" t="s">
         <v>54</v>
@@ -14851,7 +14850,7 @@
         <v>42865</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="23">
         <v>42856</v>
       </c>
@@ -14877,7 +14876,7 @@
         <v>42886</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="23">
         <v>42887</v>
       </c>
@@ -14903,7 +14902,7 @@
         <v>42941</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="23">
         <v>42917</v>
       </c>
@@ -14923,7 +14922,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="23">
         <v>42948</v>
       </c>
@@ -14943,7 +14942,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="23">
         <v>42979</v>
       </c>
@@ -14969,7 +14968,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="23"/>
       <c r="B500" s="20" t="s">
         <v>55</v>
@@ -14988,7 +14987,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="23">
         <v>43009</v>
       </c>
@@ -15008,7 +15007,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="23">
         <v>43040</v>
       </c>
@@ -15034,7 +15033,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="23">
         <v>43070</v>
       </c>
@@ -15054,7 +15053,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="48" t="s">
         <v>84</v>
       </c>
@@ -15076,7 +15075,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="23">
         <v>43101</v>
       </c>
@@ -15096,7 +15095,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="23">
         <v>43132</v>
       </c>
@@ -15116,7 +15115,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="23">
         <v>43160</v>
       </c>
@@ -15142,7 +15141,7 @@
         <v>43171</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="23">
         <v>43191</v>
       </c>
@@ -15166,7 +15165,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="23">
         <v>43221</v>
       </c>
@@ -15190,7 +15189,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="23">
         <v>43252</v>
       </c>
@@ -15210,7 +15209,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="23">
         <v>43282</v>
       </c>
@@ -15236,7 +15235,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="23"/>
       <c r="B512" s="20" t="s">
         <v>49</v>
@@ -15258,7 +15257,7 @@
         <v>43269</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="23">
         <v>43313</v>
       </c>
@@ -15284,7 +15283,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="23">
         <v>43344</v>
       </c>
@@ -15310,7 +15309,7 @@
         <v>43368</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="23">
         <v>43374</v>
       </c>
@@ -15334,7 +15333,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="23"/>
       <c r="B516" s="20" t="s">
         <v>399</v>
@@ -15356,7 +15355,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="23">
         <v>43405</v>
       </c>
@@ -15376,7 +15375,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="23">
         <v>43435</v>
       </c>
@@ -15402,7 +15401,7 @@
         <v>43441</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="48" t="s">
         <v>85</v>
       </c>
@@ -15420,7 +15419,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="23">
         <v>43466</v>
       </c>
@@ -15440,7 +15439,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="23">
         <v>43497</v>
       </c>
@@ -15460,7 +15459,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="23">
         <v>43525</v>
       </c>
@@ -15486,7 +15485,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="23">
         <v>43556</v>
       </c>
@@ -15510,7 +15509,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="23">
         <v>43586</v>
       </c>
@@ -15534,7 +15533,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="23">
         <v>43617</v>
       </c>
@@ -15558,7 +15557,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="23">
         <v>43647</v>
       </c>
@@ -15578,7 +15577,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="23">
         <v>43678</v>
       </c>
@@ -15604,7 +15603,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="23">
         <v>43709</v>
       </c>
@@ -15624,7 +15623,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="23">
         <v>43739</v>
       </c>
@@ -15650,7 +15649,7 @@
         <v>43740</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="23"/>
       <c r="B530" s="20" t="s">
         <v>49</v>
@@ -15669,7 +15668,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="23"/>
       <c r="B531" s="20" t="s">
         <v>55</v>
@@ -15688,7 +15687,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="23">
         <v>43770</v>
       </c>
@@ -15708,7 +15707,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="23">
         <v>43800</v>
       </c>
@@ -15734,7 +15733,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="23"/>
       <c r="B534" s="20" t="s">
         <v>49</v>
@@ -15753,7 +15752,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="23"/>
       <c r="B535" s="20" t="s">
         <v>54</v>
@@ -15772,7 +15771,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="23"/>
       <c r="B536" s="20" t="s">
         <v>49</v>
@@ -15789,7 +15788,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="23"/>
       <c r="B537" s="20" t="s">
         <v>49</v>
@@ -15808,7 +15807,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="48" t="s">
         <v>86</v>
       </c>
@@ -15830,7 +15829,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="23">
         <v>43831</v>
       </c>
@@ -15854,7 +15853,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="23">
         <v>43862</v>
       </c>
@@ -15874,7 +15873,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="23">
         <v>43891</v>
       </c>
@@ -15894,7 +15893,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="23">
         <v>43922</v>
       </c>
@@ -15914,7 +15913,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="23">
         <v>43952</v>
       </c>
@@ -15934,7 +15933,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="23">
         <v>43983</v>
       </c>
@@ -15958,7 +15957,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="23">
         <v>44013</v>
       </c>
@@ -15982,7 +15981,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="23">
         <v>44044</v>
       </c>
@@ -16002,7 +16001,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="23">
         <v>44075</v>
       </c>
@@ -16022,7 +16021,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="23">
         <v>44105</v>
       </c>
@@ -16046,7 +16045,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="23">
         <v>44136</v>
       </c>
@@ -16066,7 +16065,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="23">
         <v>44166</v>
       </c>
@@ -16090,7 +16089,7 @@
         <v>44169</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="23"/>
       <c r="B551" s="20" t="s">
         <v>413</v>
@@ -16112,7 +16111,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="48" t="s">
         <v>87</v>
       </c>
@@ -16134,7 +16133,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="23">
         <v>44197</v>
       </c>
@@ -16154,7 +16153,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="23">
         <v>44228</v>
       </c>
@@ -16174,7 +16173,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="23">
         <v>44256</v>
       </c>
@@ -16194,7 +16193,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="23">
         <v>44287</v>
       </c>
@@ -16214,7 +16213,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="23">
         <v>44317</v>
       </c>
@@ -16234,7 +16233,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="23">
         <v>44348</v>
       </c>
@@ -16254,7 +16253,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="23">
         <v>44378</v>
       </c>
@@ -16278,7 +16277,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="23">
         <v>44409</v>
       </c>
@@ -16298,7 +16297,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="23">
         <v>44440</v>
       </c>
@@ -16318,7 +16317,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="23">
         <v>44470</v>
       </c>
@@ -16342,7 +16341,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="23"/>
       <c r="B563" s="20" t="s">
         <v>54</v>
@@ -16361,7 +16360,7 @@
         <v>44508</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="23"/>
       <c r="B564" s="20" t="s">
         <v>54</v>
@@ -16380,7 +16379,7 @@
         <v>44529</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="23">
         <v>44501</v>
       </c>
@@ -16406,7 +16405,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="23">
         <v>44531</v>
       </c>
@@ -16426,7 +16425,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="48" t="s">
         <v>47</v>
       </c>
@@ -16441,7 +16440,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="39">
         <v>44562</v>
       </c>
@@ -16465,7 +16464,7 @@
         <v>44588</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="39"/>
       <c r="B569" s="20" t="s">
         <v>48</v>
@@ -16485,7 +16484,7 @@
         <v>44565</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="39">
         <v>44593</v>
       </c>
@@ -16505,7 +16504,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="39">
         <v>44621</v>
       </c>
@@ -16531,7 +16530,7 @@
         <v>44637</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="39">
         <v>44652</v>
       </c>
@@ -16551,7 +16550,7 @@
       <c r="J572" s="12"/>
       <c r="K572" s="15"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="39">
         <v>44682</v>
       </c>
@@ -16577,7 +16576,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="39"/>
       <c r="B574" s="20" t="s">
         <v>48</v>
@@ -16597,7 +16596,7 @@
         <v>44711</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="39"/>
       <c r="B575" s="20" t="s">
         <v>52</v>
@@ -16619,7 +16618,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="39">
         <v>44713</v>
       </c>
@@ -16645,7 +16644,7 @@
         <v>44750</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="39">
         <v>44743</v>
       </c>
@@ -16665,7 +16664,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="39">
         <v>44774</v>
       </c>
@@ -16685,7 +16684,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="39">
         <v>44805</v>
       </c>
@@ -16711,7 +16710,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="39">
         <v>44835</v>
       </c>
@@ -16737,7 +16736,7 @@
         <v>44859</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="39">
         <v>44866</v>
       </c>
@@ -16763,7 +16762,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="39">
         <v>44896</v>
       </c>
@@ -16783,7 +16782,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="48" t="s">
         <v>57</v>
       </c>
@@ -16801,7 +16800,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="39">
         <v>44927</v>
       </c>
@@ -16825,7 +16824,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="39">
         <v>44958</v>
       </c>
@@ -16845,7 +16844,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="39">
         <v>44986</v>
       </c>
@@ -16865,7 +16864,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="39">
         <v>45017</v>
       </c>
@@ -16885,7 +16884,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="39">
         <v>45047</v>
       </c>
@@ -16909,7 +16908,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="39">
         <v>45078</v>
       </c>
@@ -16929,7 +16928,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="39">
         <v>45108</v>
       </c>
@@ -16953,11 +16952,11 @@
         <v>418</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A591" s="39">
-        <v>45139</v>
-      </c>
-      <c r="B591" s="20"/>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A591" s="39"/>
+      <c r="B591" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C591" s="13"/>
       <c r="D591" s="38"/>
       <c r="E591" s="9"/>
@@ -16966,14 +16965,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H591" s="38"/>
+      <c r="H591" s="38">
+        <v>1</v>
+      </c>
       <c r="I591" s="9"/>
       <c r="J591" s="11"/>
-      <c r="K591" s="20"/>
-    </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K591" s="49">
+        <v>45112</v>
+      </c>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="39">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -16989,9 +16992,9 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="39">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -17007,9 +17010,9 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="39">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -17025,9 +17028,9 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="39">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -17043,8 +17046,10 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A596" s="39"/>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A596" s="39">
+        <v>45261</v>
+      </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
       <c r="D596" s="38"/>
@@ -17059,7 +17064,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="39"/>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -17075,7 +17080,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="39"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -17091,7 +17096,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="39"/>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -17107,7 +17112,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="39"/>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -17123,7 +17128,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="39"/>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -17139,7 +17144,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="39"/>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17155,7 +17160,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="39"/>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17171,7 +17176,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="39"/>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -17187,7 +17192,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="39"/>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -17203,7 +17208,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="39"/>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -17219,7 +17224,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="39"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -17235,7 +17240,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="39"/>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -17251,7 +17256,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="39"/>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -17267,7 +17272,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="39"/>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -17283,7 +17288,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="39"/>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -17299,7 +17304,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="39"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -17315,7 +17320,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="39"/>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -17331,7 +17336,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="39"/>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -17347,7 +17352,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="39"/>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -17363,7 +17368,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="39"/>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -17379,7 +17384,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="39"/>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -17395,7 +17400,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="39"/>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -17411,7 +17416,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="39"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17427,7 +17432,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="39"/>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -17443,7 +17448,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="39"/>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -17459,7 +17464,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="39"/>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -17475,7 +17480,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="39"/>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -17491,7 +17496,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="39"/>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -17507,7 +17512,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="39"/>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -17523,7 +17528,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="39"/>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -17539,7 +17544,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="39"/>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -17555,7 +17560,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="39"/>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -17571,7 +17576,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="39"/>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -17587,7 +17592,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="39"/>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -17603,7 +17608,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="39"/>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -17619,7 +17624,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="39"/>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -17635,7 +17640,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="39"/>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -17651,7 +17656,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="39"/>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -17667,7 +17672,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="39"/>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -17683,7 +17688,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="39"/>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -17699,7 +17704,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="39"/>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -17715,7 +17720,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="39"/>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -17731,7 +17736,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="39"/>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -17747,7 +17752,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="39"/>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -17763,7 +17768,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="39"/>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -17779,7 +17784,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="39"/>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -17795,7 +17800,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="39"/>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -17811,7 +17816,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="39"/>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -17827,7 +17832,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="39"/>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -17843,7 +17848,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="39"/>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -17859,7 +17864,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="39"/>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -17875,7 +17880,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="39"/>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -17891,7 +17896,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="39"/>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -17907,7 +17912,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="39"/>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -17923,7 +17928,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="39"/>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -17939,7 +17944,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="39"/>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -17955,7 +17960,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="39"/>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -17971,7 +17976,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="39"/>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -17987,7 +17992,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="39"/>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18003,7 +18008,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="39"/>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18019,7 +18024,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="39"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18035,7 +18040,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="39"/>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18051,7 +18056,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="39"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18067,7 +18072,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="39"/>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18083,7 +18088,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="39"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18099,7 +18104,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="39"/>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18115,7 +18120,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="39"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18131,7 +18136,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="39"/>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18147,7 +18152,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="39"/>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18163,7 +18168,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="39"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -18179,7 +18184,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="39"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -18195,7 +18200,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="39"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18211,7 +18216,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="39"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18227,7 +18232,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="39"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18243,7 +18248,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="39"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18259,7 +18264,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="39"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18275,7 +18280,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="39"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18291,7 +18296,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="39"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18307,7 +18312,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="39"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18323,7 +18328,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="39"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -18339,7 +18344,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="39"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18355,7 +18360,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="39"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18371,7 +18376,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="39"/>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18387,7 +18392,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="39"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -18403,7 +18408,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="39"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18419,7 +18424,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="39"/>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18435,7 +18440,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="39"/>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18451,7 +18456,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="39"/>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18467,7 +18472,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="39"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -18483,7 +18488,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="39"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18499,7 +18504,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="39"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18515,7 +18520,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="39"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18531,21 +18536,37 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A689" s="40"/>
-      <c r="B689" s="15"/>
-      <c r="C689" s="41"/>
-      <c r="D689" s="42"/>
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A689" s="39"/>
+      <c r="B689" s="20"/>
+      <c r="C689" s="13"/>
+      <c r="D689" s="38"/>
       <c r="E689" s="9"/>
-      <c r="F689" s="15"/>
-      <c r="G689" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H689" s="42"/>
+      <c r="F689" s="20"/>
+      <c r="G689" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H689" s="38"/>
       <c r="I689" s="9"/>
-      <c r="J689" s="12"/>
-      <c r="K689" s="15"/>
+      <c r="J689" s="11"/>
+      <c r="K689" s="20"/>
+    </row>
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A690" s="40"/>
+      <c r="B690" s="15"/>
+      <c r="C690" s="41"/>
+      <c r="D690" s="42"/>
+      <c r="E690" s="9"/>
+      <c r="F690" s="15"/>
+      <c r="G690" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H690" s="42"/>
+      <c r="I690" s="9"/>
+      <c r="J690" s="12"/>
+      <c r="K690" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18562,10 +18583,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18588,28 +18609,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="69" t="s">
         <v>33</v>
       </c>
@@ -18622,7 +18643,7 @@
       <c r="K1" s="70"/>
       <c r="L1" s="70"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>24</v>
       </c>
@@ -18651,7 +18672,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -18677,17 +18698,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="32"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -18708,7 +18729,7 @@
       <c r="K6" s="71"/>
       <c r="L6" s="71"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -18735,7 +18756,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -18761,7 +18782,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -18787,7 +18808,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -18813,7 +18834,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -18839,7 +18860,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -18865,7 +18886,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -18891,7 +18912,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -18917,7 +18938,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -18937,7 +18958,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -18957,7 +18978,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -18977,7 +18998,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -18998,7 +19019,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -19019,7 +19040,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -19040,7 +19061,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -19061,7 +19082,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -19082,7 +19103,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -19103,7 +19124,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -19124,7 +19145,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -19145,7 +19166,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -19166,7 +19187,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -19187,7 +19208,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -19208,7 +19229,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -19229,7 +19250,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -19250,7 +19271,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -19271,7 +19292,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -19292,7 +19313,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -19313,7 +19334,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -19334,7 +19355,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -19355,7 +19376,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -19376,7 +19397,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -19397,7 +19418,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -19406,7 +19427,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -19415,7 +19436,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -19424,7 +19445,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -19433,7 +19454,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -19442,7 +19463,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -19451,7 +19472,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -19460,7 +19481,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -19469,7 +19490,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -19478,7 +19499,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -19487,7 +19508,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -19496,7 +19517,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -19505,7 +19526,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -19514,7 +19535,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -19523,7 +19544,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -19532,7 +19553,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -19541,7 +19562,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -19550,7 +19571,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -19559,7 +19580,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -19568,7 +19589,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -19577,7 +19598,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -19586,7 +19607,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -19595,7 +19616,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -19604,7 +19625,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -19613,7 +19634,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -19622,7 +19643,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -19631,7 +19652,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -19640,7 +19661,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -19649,7 +19670,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -19658,7 +19679,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/BORJA, NECY MANIMTIM.xlsx
+++ b/REGULAR/OJT/BORJA, NECY MANIMTIM.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="419">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2016,7 +2016,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2059,7 +2059,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2123,7 +2123,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2183,7 +2183,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2249,7 +2249,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2312,7 +2312,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2410,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2469,7 +2469,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2534,7 +2534,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2577,7 +2577,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2652,7 +2652,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2838,7 +2838,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2904,7 +2904,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2962,7 +2962,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3028,7 +3028,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3084,7 +3084,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3159,7 +3159,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3202,7 +3202,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3268,7 +3268,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3324,7 +3324,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3420,7 +3420,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K690" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K691" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -3767,7 +3767,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M690"/>
+  <dimension ref="A2:M691"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A580" activePane="bottomLeft"/>
@@ -3950,7 +3950,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16975,10 +16975,10 @@
       </c>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A592" s="39">
-        <v>45139</v>
-      </c>
-      <c r="B592" s="20"/>
+      <c r="A592" s="39"/>
+      <c r="B592" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C592" s="13"/>
       <c r="D592" s="38"/>
       <c r="E592" s="9"/>
@@ -16987,14 +16987,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H592" s="38"/>
+      <c r="H592" s="38">
+        <v>1</v>
+      </c>
       <c r="I592" s="9"/>
       <c r="J592" s="11"/>
-      <c r="K592" s="20"/>
+      <c r="K592" s="49">
+        <v>45117</v>
+      </c>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="39">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -17012,7 +17016,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="39">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -17030,7 +17034,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="39">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -17048,7 +17052,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="39">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -17065,7 +17069,9 @@
       <c r="K596" s="20"/>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A597" s="39"/>
+      <c r="A597" s="39">
+        <v>45261</v>
+      </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
       <c r="D597" s="38"/>
@@ -18553,20 +18559,36 @@
       <c r="K689" s="20"/>
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A690" s="40"/>
-      <c r="B690" s="15"/>
-      <c r="C690" s="41"/>
-      <c r="D690" s="42"/>
+      <c r="A690" s="39"/>
+      <c r="B690" s="20"/>
+      <c r="C690" s="13"/>
+      <c r="D690" s="38"/>
       <c r="E690" s="9"/>
-      <c r="F690" s="15"/>
-      <c r="G690" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H690" s="42"/>
+      <c r="F690" s="20"/>
+      <c r="G690" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H690" s="38"/>
       <c r="I690" s="9"/>
-      <c r="J690" s="12"/>
-      <c r="K690" s="15"/>
+      <c r="J690" s="11"/>
+      <c r="K690" s="20"/>
+    </row>
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A691" s="40"/>
+      <c r="B691" s="15"/>
+      <c r="C691" s="41"/>
+      <c r="D691" s="42"/>
+      <c r="E691" s="9"/>
+      <c r="F691" s="15"/>
+      <c r="G691" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H691" s="42"/>
+      <c r="I691" s="9"/>
+      <c r="J691" s="12"/>
+      <c r="K691" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
